--- a/data/Демэкология. Структура популяции. (Общая экология)(1-85).xlsx
+++ b/data/Демэкология. Структура популяции. (Общая экология)(1-85).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9407"/>
+    <workbookView windowWidth="22368" windowHeight="9407"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>st076107@student.spbu.ru</t>
   </si>
   <si>
-    <t>st092135@ad.pu.ru</t>
+    <t>st092135@student.spbu.ru</t>
   </si>
   <si>
     <t>st076415@student.spbu.ru</t>
@@ -285,10 +285,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -302,29 +302,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -344,9 +321,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,13 +366,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -376,45 +375,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,6 +397,38 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -437,7 +437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,19 +458,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,157 +626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,23 +649,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,17 +699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -716,15 +710,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,149 +728,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1229,8 +1229,8 @@
   <sheetPr/>
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B57" sqref="B$1:B$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1351,7 +1351,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15">
@@ -1359,7 +1359,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16">
@@ -1938,6 +1938,8 @@
   <hyperlinks>
     <hyperlink ref="A87" r:id="rId2" display="st068449@ad.pu.ru" tooltip="mailto:st068449@ad.pu.ru"/>
     <hyperlink ref="A71" r:id="rId3" display="st069228@ad.pu.ru"/>
+    <hyperlink ref="A15" r:id="rId4" display="st092135@student.spbu.ru" tooltip="mailto:st092135@student.spbu.ru"/>
+    <hyperlink ref="A16" r:id="rId5" display="st076415@student.spbu.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
